--- a/W1D4 - EPICODE.xlsx
+++ b/W1D4 - EPICODE.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fortu\Desktop\epicode excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2824CB97-9FCC-47CA-BDCC-0DE9A26A5E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E749C520-8121-4A0A-9E35-7547711FF46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cibi" sheetId="1" r:id="rId1"/>
     <sheet name="Peso" sheetId="2" r:id="rId2"/>
     <sheet name="Snacks" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>CIBO</t>
   </si>
@@ -102,25 +115,16 @@
     <t>Girella</t>
   </si>
   <si>
-    <t>Colonna1</t>
-  </si>
-  <si>
-    <t>Somma</t>
-  </si>
-  <si>
-    <t>Media</t>
-  </si>
-  <si>
-    <t>Totale parziale</t>
-  </si>
-  <si>
-    <t>Conteggio</t>
-  </si>
-  <si>
     <t>GRAFICO GENERALE PER RAPPRESENTAZIONE DELLE PREFRENZE DI OGNI PAESE:</t>
   </si>
   <si>
     <t>PER OGNI PAESE:</t>
+  </si>
+  <si>
+    <t>MEGLIO QUESTO (IN CLASSE)</t>
+  </si>
+  <si>
+    <t>IN CLASSE:</t>
   </si>
 </sst>
 </file>
@@ -238,6 +242,125 @@
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -372,57 +495,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -433,74 +505,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="minor"/>
@@ -593,7 +597,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -644,6 +648,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -663,6 +672,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -682,6 +696,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -703,6 +722,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -724,6 +748,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -745,6 +774,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -767,6 +801,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-46E4-4A05-B21E-4771991B4F1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1013,7 +1052,2001 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Snacks!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Francia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3503-47B4-AEB7-A2002030E54D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1967389711"/>
+        <c:axId val="1967386831"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1967389711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967386831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967386831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967389711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Snacks!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Germania</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-748F-437A-BDCE-0E4253C633C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1967329711"/>
+        <c:axId val="1967332591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1967329711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967332591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967332591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967329711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Snacks!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spagna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D333-419A-84C4-489CC002C9F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1967335471"/>
+        <c:axId val="1967328751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1967335471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967328751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967328751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967335471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>VOTI</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pasta</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pizza</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gelato</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Risotto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiramisù</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cannoli</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cibi!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prosciutto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cibi!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VOTI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cibi!$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D2AE-4804-977F-31DC695ABD48}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="1967363791"/>
+        <c:axId val="1967368591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1967363791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1967368591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1967368591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1967363791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6275809273840773E-2"/>
+          <c:y val="0.15925925925925924"/>
+          <c:w val="0.89300393700787406"/>
+          <c:h val="7.3840405365995912E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1536,7 +3569,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1621,6 +3654,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1644,6 +3682,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1667,6 +3710,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1690,6 +3738,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1713,6 +3766,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1736,6 +3794,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1761,6 +3824,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1786,6 +3854,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1811,6 +3884,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1836,6 +3914,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-92A0-49A6-BA8B-4B874C642E1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1970,531 +4053,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EA33-4451-BD93-1AAF3DD172D8}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="inEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="1"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Snacks!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Francia</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="7"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="8"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="9"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="lt1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="1"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="1"/>
-            <c:leaderLines>
-              <c:spPr>
-                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="35000"/>
-                      <a:lumOff val="65000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-            </c:leaderLines>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Snacks!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Mars</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Kit-Kat</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Kinder Bueno</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Nutella</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Baiocchi</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Lion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Snickers</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Frutta</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Verdura</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Girella</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Snacks!$C$2:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>11</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32D9-489C-8697-15470755825C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2640,11 +4198,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Snacks!$D$1</c:f>
+              <c:f>Snacks!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Germania</c:v>
+                  <c:v>Francia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2671,6 +4229,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2694,6 +4257,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2717,6 +4285,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2740,6 +4313,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -2763,6 +4341,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -2786,6 +4369,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -2811,6 +4399,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -2836,6 +4429,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -2861,6 +4459,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -2886,6 +4489,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-6823-4C97-98C5-FE8AB196EFEA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2980,46 +4588,46 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Snacks!$D$2:$D$11</c:f>
+              <c:f>Snacks!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F3F9-45AD-8CBC-A5180F6DC667}"/>
+              <c16:uniqueId val="{00000000-32D9-489C-8697-15470755825C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3165,11 +4773,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Snacks!$E$1</c:f>
+              <c:f>Snacks!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Spagna</c:v>
+                  <c:v>Germania</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3196,6 +4804,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3219,6 +4832,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -3242,6 +4860,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -3265,6 +4888,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -3288,6 +4916,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -3311,6 +4944,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -3336,6 +4974,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -3361,6 +5004,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -3386,6 +5034,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -3411,6 +5064,586 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-2F65-446A-B377-1C762BEED87F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F3F9-45AD-8CBC-A5180F6DC667}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Snacks!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spagna</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-3AAE-412F-BEEE-5A9DE03CEEFD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -3636,7 +5869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4742,6 +6975,335 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Snacks!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Italia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Snacks!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Mars</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Kit-Kat</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Kinder Bueno</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Nutella</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Baiocchi</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Lion</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Snickers</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Frutta</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Verdura</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Girella</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Snacks!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AA2C-4A0D-9E2D-694FD8E34294}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1412411024"/>
+        <c:axId val="1412411984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1412411024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412411984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1412411984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1412411024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
   <a:schemeClr val="accent1"/>
@@ -4776,6 +7338,24 @@
     <a:lumMod val="50000"/>
     <a:lumOff val="50000"/>
   </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
@@ -5019,6 +7599,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="253">
   <cs:axisTitle>
@@ -5620,8 +8280,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5729,11 +8389,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -5744,11 +8399,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -5780,9 +8430,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5838,6 +8485,2058 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -6136,7 +10835,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6653,7 +11352,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7170,7 +11869,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7687,7 +12386,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8204,7 +12903,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8676,6 +13375,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8713,6 +13917,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>87630</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{149304D1-3206-13BA-1946-20D8E43A6162}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8944,40 +14184,184 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>179293</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>10459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>418352</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>34365</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FD44141-E761-AAB4-D8F1-EE02E692D13B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>672352</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>109070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61177E23-9716-7DFA-9E19-181CF56F6925}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313764</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>70224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>552823</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>94130</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C4DFA58-F0D7-DC43-3CB7-5F85AB0145ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>55282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79188</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Grafico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B78F4DDB-E547-2DC2-1FE0-BB1EBC5C54D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED1EFA3C-19C5-4801-ADB9-AF90285328E2}" name="Tabella1" displayName="Tabella1" ref="A1:B8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{ED1EFA3C-19C5-4801-ADB9-AF90285328E2}" name="Tabella1" displayName="Tabella1" ref="A1:B8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:B8" xr:uid="{ED1EFA3C-19C5-4801-ADB9-AF90285328E2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5127346C-9B47-41BE-8336-BB2F0BA31655}" name="CIBO" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{9838EC9E-433C-438E-8FFD-B6AC81C77C42}" name="VOTI" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{5127346C-9B47-41BE-8336-BB2F0BA31655}" name="CIBO" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{9838EC9E-433C-438E-8FFD-B6AC81C77C42}" name="VOTI" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F00629C2-C9AD-4DB2-B7BA-68375DE8742C}" name="Tabella2" displayName="Tabella2" ref="A1:B31" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F00629C2-C9AD-4DB2-B7BA-68375DE8742C}" name="Tabella2" displayName="Tabella2" ref="A1:B31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:B31" xr:uid="{F00629C2-C9AD-4DB2-B7BA-68375DE8742C}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{D36B1720-5036-46EA-AD96-654983431C77}" name="GIORNO" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{3036E331-7D3B-4911-91D3-7144BBFAF780}" name="PESO" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D36B1720-5036-46EA-AD96-654983431C77}" name="GIORNO" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{3036E331-7D3B-4911-91D3-7144BBFAF780}" name="PESO" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5B15710-1E2F-48C0-ABDE-5102BF22C382}" name="Tabella3" displayName="Tabella3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5B15710-1E2F-48C0-ABDE-5102BF22C382}" name="Tabella3" displayName="Tabella3" ref="A1:E11" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E11" xr:uid="{B5B15710-1E2F-48C0-ABDE-5102BF22C382}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{5574E109-96B9-4F25-A0D7-F11B4689F146}" name="Snack" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{24E4DBFB-0F38-4B64-8F6B-96562C5FA542}" name="Italia" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2FB057EB-B493-469A-8BF3-1BE4BDB5028C}" name="Francia" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{6B4E919F-F91A-46A5-B48A-7B746139700C}" name="Germania" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{04406EF7-D4D5-40B5-8357-95AA82094C6A}" name="Spagna" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{5574E109-96B9-4F25-A0D7-F11B4689F146}" name="Snack" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{24E4DBFB-0F38-4B64-8F6B-96562C5FA542}" name="Italia" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2FB057EB-B493-469A-8BF3-1BE4BDB5028C}" name="Francia" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{6B4E919F-F91A-46A5-B48A-7B746139700C}" name="Germania" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{04406EF7-D4D5-40B5-8357-95AA82094C6A}" name="Spagna" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9186,8 +14570,8 @@
   </sheetPr>
   <dimension ref="A1:Z8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9243,6 +14627,9 @@
       </c>
       <c r="B3" s="2">
         <v>42</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
@@ -9301,7 +14688,7 @@
   </sheetPr>
   <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
@@ -9597,10 +14984,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z35"/>
   <sheetViews>
-    <sheetView zoomScale="38" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="C1" zoomScale="51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9610,7 +14997,7 @@
     <col min="4" max="4" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -9648,7 +15035,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -9665,7 +15052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
@@ -9682,7 +15069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -9699,7 +15086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -9716,7 +15103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -9733,7 +15120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
@@ -9750,7 +15137,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
@@ -9767,7 +15154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -9784,7 +15171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>24</v>
       </c>
@@ -9801,7 +15188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>25</v>
       </c>
@@ -9820,10 +15207,15 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J35" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
